--- a/doc/template/nak_ku.xlsx
+++ b/doc/template/nak_ku.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfk3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Музмарт\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5900" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -309,13 +309,13 @@
     <t>[*summa2*]</t>
   </si>
   <si>
-    <t>ООО "Кайрос", ИНН 7203265990, 625033, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78, р/с 40702810000020012036, в банке Филиал № 6602 Банка ВТБ (ПАО) в г. Екатеринбурге, БИК 046577501, к/с 30101810165770000501</t>
+    <t>ООО "Кайрос", ИНН 7203265990, 625000, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78, р/с 40702810200020012036, в банке Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ ПАО Г. МОСКВА, БИК 044525411, к/с 30101810145250000411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1154,6 +1154,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1170,12 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,97 +1487,97 @@
   </sheetPr>
   <dimension ref="A1:AN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:AH12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="0.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="0.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="2" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="1.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5" style="1" customWidth="1"/>
     <col min="22" max="22" width="7.33203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="2" style="1" customWidth="1"/>
     <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.77734375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.83203125" style="1" customWidth="1"/>
     <col min="27" max="27" width="1" style="1" customWidth="1"/>
     <col min="28" max="28" width="4" style="1" customWidth="1"/>
     <col min="29" max="29" width="0.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="0.77734375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="1.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="0.83203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="1.1640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="7" style="1" customWidth="1"/>
     <col min="33" max="33" width="2" style="1" customWidth="1"/>
     <col min="34" max="34" width="3.6640625" style="1" customWidth="1"/>
     <col min="35" max="35" width="2.33203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="5.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="1.109375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="0.109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="0.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="1.1640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.83203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="0.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="0.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-    </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="116"/>
+      <c r="AK1" s="116"/>
+      <c r="AL1" s="116"/>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="3" t="s">
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="117" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="112"/>
@@ -1623,7 +1623,7 @@
         <v>330212</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="112"/>
       <c r="C4" s="112"/>
       <c r="D4" s="112"/>
@@ -1665,7 +1665,7 @@
         <v>92225735</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1696,45 +1696,45 @@
       <c r="AC5" s="8"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-      <c r="AL5" s="116"/>
+      <c r="AL5" s="118"/>
     </row>
     <row r="6" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="117"/>
-      <c r="AC6" s="117"/>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AL6" s="116"/>
-    </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AL6" s="118"/>
+    </row>
+    <row r="7" spans="1:38" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1769,44 +1769,44 @@
       </c>
       <c r="AL7" s="10"/>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="118" t="s">
+    <row r="8" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="119" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
-      <c r="AC8" s="120"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="120"/>
-      <c r="AH8" s="120"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="114"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6" t="s">
         <v>3</v>
@@ -1815,7 +1815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>92225735</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="AL10" s="111"/>
     </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1929,51 +1929,51 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AL12" s="111"/>
     </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
@@ -2008,49 +2008,49 @@
       <c r="AK13" s="107"/>
       <c r="AL13" s="111"/>
     </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="113"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
       <c r="AJ14" s="107"/>
       <c r="AK14" s="107"/>
       <c r="AL14" s="111"/>
     </row>
-    <row r="15" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +2085,7 @@
       <c r="AK15" s="107"/>
       <c r="AL15" s="7"/>
     </row>
-    <row r="16" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="108" t="s">
         <v>15</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="AK16" s="107"/>
       <c r="AL16" s="7"/>
     </row>
-    <row r="17" spans="1:40" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2139,21 +2139,21 @@
       <c r="AK17" s="107"/>
       <c r="AL17" s="7"/>
     </row>
-    <row r="18" spans="1:40" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="AL18" s="17"/>
     </row>
-    <row r="19" spans="1:40" s="18" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="18" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK19" s="19"/>
       <c r="AL19" s="19"/>
       <c r="AM19" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="18" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="18" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="105" t="s">
         <v>21</v>
@@ -2216,7 +2216,7 @@
       <c r="AL20" s="105"/>
       <c r="AM20" s="105"/>
     </row>
-    <row r="21" spans="1:40" s="18" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="18" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="105"/>
       <c r="C21" s="105" t="s">
@@ -2273,7 +2273,7 @@
       <c r="AL21" s="105"/>
       <c r="AM21" s="105"/>
     </row>
-    <row r="22" spans="1:40" s="22" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="22" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24">
         <v>1</v>
@@ -2344,7 +2344,7 @@
       <c r="AL22" s="103"/>
       <c r="AM22" s="103"/>
     </row>
-    <row r="23" spans="1:40" s="18" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="26" t="s">
         <v>73</v>
@@ -2405,7 +2405,7 @@
       <c r="AL23" s="93"/>
       <c r="AM23" s="93"/>
     </row>
-    <row r="24" spans="1:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
@@ -2458,7 +2458,7 @@
       <c r="AL24" s="98"/>
       <c r="AM24" s="98"/>
     </row>
-    <row r="25" spans="1:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
@@ -2518,7 +2518,7 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>46</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="60" t="s">
         <v>48</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="AM28" s="73"/>
       <c r="AN28" s="74"/>
     </row>
-    <row r="29" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F29" s="86"/>
       <c r="G29" s="86"/>
       <c r="H29" s="86"/>
@@ -2587,7 +2587,7 @@
       <c r="AM29" s="76"/>
       <c r="AN29" s="77"/>
     </row>
-    <row r="30" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="86"/>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
@@ -2602,7 +2602,7 @@
       <c r="AM30" s="73"/>
       <c r="AN30" s="74"/>
     </row>
-    <row r="31" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E31" s="1" t="s">
         <v>50</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="AM31" s="76"/>
       <c r="AN31" s="77"/>
     </row>
-    <row r="32" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="79" t="s">
         <v>48</v>
       </c>
@@ -2643,8 +2643,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:40" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:40" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:40" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:40" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="2:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35" s="79" t="s">
         <v>48</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="I35" s="79"/>
       <c r="S35" s="64"/>
     </row>
-    <row r="36" spans="2:40" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:40" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="66" t="s">
         <v>56</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="AM36" s="58"/>
       <c r="AN36" s="58"/>
     </row>
-    <row r="37" spans="2:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="84" t="s">
         <v>80</v>
       </c>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="Z37" s="60"/>
     </row>
-    <row r="38" spans="2:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="85" t="s">
         <v>48</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
     </row>
-    <row r="39" spans="2:40" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:40" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>59</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="R40" s="80"/>
       <c r="S40" s="80"/>
     </row>
-    <row r="41" spans="2:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="69" t="s">
         <v>65</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="AM41" s="5"/>
       <c r="AN41" s="5"/>
     </row>
-    <row r="42" spans="2:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G42" s="60" t="s">
         <v>63</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="AM42" s="79"/>
       <c r="AN42" s="79"/>
     </row>
-    <row r="43" spans="2:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>67</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
     </row>
-    <row r="44" spans="2:40" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="63" t="s">
         <v>62</v>
       </c>
@@ -2993,10 +2993,10 @@
       <c r="AM44" s="79"/>
       <c r="AN44" s="79"/>
     </row>
-    <row r="45" spans="2:40" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:40" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S45" s="64"/>
     </row>
-    <row r="46" spans="2:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
       <c r="D46" s="50" t="s">
